--- a/画面項目定義/ユーザーチェック画面項目定義.xlsx
+++ b/画面項目定義/ユーザーチェック画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09528EAE-D17C-4269-A342-CCC70E941560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D8B97-8A58-4C0F-9479-E3EDF2CB552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2FE1FB2-0ED8-4340-8561-95987A15C038}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{B2FE1FB2-0ED8-4340-8561-95987A15C038}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,31 +80,6 @@
     <t>表示</t>
   </si>
   <si>
-    <r>
-      <t>マイページ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>mypage.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>予約日時</t>
   </si>
   <si>
@@ -183,36 +158,19 @@
     <t>リンク先の有効性を確認</t>
   </si>
   <si>
-    <r>
-      <t>口コミページ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>goodclaim.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) に遷移</t>
-    </r>
+    <t>口コミ書き込み画面に遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル予約状況確認画面に遷移</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +187,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -612,13 +564,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9476EDE9-5BBC-4982-BF16-F9FF51BBD1A8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -658,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -675,32 +627,32 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="72">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -709,21 +661,21 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -735,15 +687,15 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="54">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -752,55 +704,55 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="72">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -809,18 +761,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="72">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -829,38 +781,38 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -872,14 +824,14 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>